--- a/analyse.xlsx
+++ b/analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwar\Desktop\TP2ALGO\tp3-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8530177E-1A7F-45B2-B6E8-8B361567D69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD703B56-9962-4C75-9E8B-EB3253CD139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B865829C-64C6-416A-9E9B-10BD87765965}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{B865829C-64C6-416A-9E9B-10BD87765965}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
   <si>
     <t>Algorithme</t>
   </si>
@@ -83,18 +83,12 @@
     <t>Random BFS</t>
   </si>
   <si>
-    <t>2.49</t>
-  </si>
-  <si>
     <t>GRID</t>
   </si>
   <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>11.91</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>1.89</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
     <t>Erdos</t>
   </si>
   <si>
@@ -149,18 +140,12 @@
     <t>16.26</t>
   </si>
   <si>
-    <t>0.185</t>
-  </si>
-  <si>
     <t>1.90</t>
   </si>
   <si>
     <t>Lollipop</t>
   </si>
   <si>
-    <t>5.60</t>
-  </si>
-  <si>
     <t>69.76</t>
   </si>
   <si>
@@ -186,6 +171,21 @@
   </si>
   <si>
     <t>71.04</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>6.17</t>
   </si>
 </sst>
 </file>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F486211A-71BC-4D40-8C6F-74CC69731E67}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -734,24 +734,24 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>440</v>
+        <v>541</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2">
-        <v>195</v>
+        <v>5494</v>
       </c>
       <c r="F7" s="2">
-        <v>35</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>163</v>
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>147</v>
@@ -827,10 +827,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2">
         <v>149</v>
@@ -844,24 +844,24 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2">
-        <v>399</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2">
-        <v>36</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2">
         <v>409</v>
@@ -917,10 +917,10 @@
         <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
         <v>369</v>
@@ -937,10 +937,10 @@
         <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2">
         <v>366</v>
@@ -957,10 +957,10 @@
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
         <v>401</v>
@@ -974,24 +974,24 @@
         <v>14</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2">
-        <v>950</v>
+        <v>581</v>
       </c>
       <c r="F20" s="2">
-        <v>36</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="F23" s="2">
-        <v>25</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1047,10 +1047,10 @@
         <v>197</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>136</v>
@@ -1067,10 +1067,10 @@
         <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2">
         <v>136</v>
@@ -1087,10 +1087,10 @@
         <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2">
         <v>123</v>
@@ -1107,10 +1107,10 @@
         <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
         <v>122</v>
